--- a/documents/Work Sharing.xlsx
+++ b/documents/Work Sharing.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zafer\PycharmProjects\whentheringbells\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFB9839-23D1-4ECB-BBAB-CF5FBE463B14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Scenarios and Use Cases</t>
+  </si>
+  <si>
+    <t>Rad Partials</t>
+  </si>
+  <si>
+    <t>Non Functional Requerinments</t>
+  </si>
+  <si>
+    <t>Base Functionalities</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
   <si>
     <t>Ersin</t>
   </si>
@@ -28,63 +37,100 @@
     <t>Teacher</t>
   </si>
   <si>
+    <t>1.1 purpose of the system ve 3. proposed system</t>
+  </si>
+  <si>
+    <t>reliability ve implementation</t>
+  </si>
+  <si>
+    <t>Database Structure</t>
+  </si>
+  <si>
+    <t>Home(Course List for Student and Teacher), Attendance management Pages(Open, Edit, Take)</t>
+  </si>
+  <si>
     <t>Zafer</t>
   </si>
   <si>
     <t>Student</t>
   </si>
   <si>
+    <t>1.2 scope of the system vs 3.1 overview</t>
+  </si>
+  <si>
+    <t>performance ve legal</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Login page, routing between pages</t>
+  </si>
+  <si>
     <t>Çağatay</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
+    <t>1.5 overview</t>
+  </si>
+  <si>
+    <t>supportability ve packaging</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>Admin Validation Pages, Preventing actors to open wrong pages</t>
+  </si>
+  <si>
     <t>Serdar</t>
   </si>
   <si>
     <t>Student Afair</t>
   </si>
   <si>
-    <t>1. introduction ve 2. current system -&gt; serdar</t>
-  </si>
-  <si>
-    <t>1.1 purpose of the system ve 3. proposed system -&gt; ersin</t>
-  </si>
-  <si>
-    <t>1.2 scope of the system vs 3.1 overview -&gt; zafer</t>
-  </si>
-  <si>
-    <t>1.5 overview -&gt; çağatay</t>
-  </si>
-  <si>
-    <t>Scenarios and Use Cases</t>
-  </si>
-  <si>
-    <t>Rad Partials</t>
-  </si>
-  <si>
-    <t>performance ve legal -&gt; zafer</t>
-  </si>
-  <si>
-    <t>usability vs interface -&gt; serdar</t>
-  </si>
-  <si>
-    <t>reliability ve implementation -&gt; ersin</t>
-  </si>
-  <si>
-    <t>supportability ve packaging -&gt; çağatay</t>
-  </si>
-  <si>
-    <t>Non Functional Requerinments</t>
+    <t>1. introduction ve 2. current system</t>
+  </si>
+  <si>
+    <t>usability vs interface</t>
+  </si>
+  <si>
+    <t>Actor and Role Integration</t>
+  </si>
+  <si>
+    <t>Student Affair Validation Pages, Menu and page managing for each role for actors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -95,26 +141,348 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="İnherit"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,34 +490,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -407,93 +1064,128 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="7" max="7" width="62" customWidth="1"/>
-    <col min="8" max="8" width="77.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="58.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="61" customWidth="1"/>
+    <col min="5" max="5" width="39.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="90" customWidth="1"/>
+    <col min="7" max="7" width="77.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/documents/Work Sharing.xlsx
+++ b/documents/Work Sharing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Scenarios and Use Cases</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Pages</t>
   </si>
   <si>
+    <t>SDD File</t>
+  </si>
+  <si>
     <t>Ersin</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Home(Course List for Student and Teacher), Attendance management Pages(Open, Edit, Take)</t>
   </si>
   <si>
+    <t>1, 2 and 3.4</t>
+  </si>
+  <si>
     <t>Zafer</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>Login page, routing between pages</t>
   </si>
   <si>
+    <t>3 to 3.3</t>
+  </si>
+  <si>
     <t>Çağatay</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>Admin Validation Pages, Preventing actors to open wrong pages</t>
   </si>
   <si>
+    <t>3.7, 3.6</t>
+  </si>
+  <si>
     <t>Serdar</t>
   </si>
   <si>
@@ -101,6 +113,15 @@
   </si>
   <si>
     <t>Student Affair Validation Pages, Menu and page managing for each role for actors</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.2 everyone will write their part</t>
+  </si>
+  <si>
+    <t>3.5 table will be edited according to given data from everyone</t>
   </si>
 </sst>
 </file>
@@ -108,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -127,14 +148,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,24 +157,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,6 +173,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -181,17 +211,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,16 +226,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -221,23 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,16 +279,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,22 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,43 +318,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,139 +486,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +509,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,22 +540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,15 +577,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -588,153 +594,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -745,63 +766,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="8" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="9" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="10" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="11" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="13" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="14" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="15" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="16" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="17" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32"/>
+    <cellStyle name="Bad" xfId="21" builtinId="27"/>
+    <cellStyle name="Currency" xfId="22" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="23" builtinId="38"/>
+    <cellStyle name="Note" xfId="24" builtinId="10"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Total" xfId="26" builtinId="25"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
+    <cellStyle name="Heading 4" xfId="28" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="29" builtinId="22"/>
+    <cellStyle name="Good" xfId="30" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="31" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="32" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="33" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="34" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="35" builtinId="50"/>
+    <cellStyle name="Title" xfId="36" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="38" builtinId="11"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="40" builtinId="47"/>
+    <cellStyle name="Input" xfId="41" builtinId="20"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1070,23 +1091,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F6"/>
+  <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="18" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.86" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="26.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="58.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="58.5733333333333" customWidth="1"/>
     <col min="4" max="4" width="61" customWidth="1"/>
-    <col min="5" max="5" width="39.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="39.14" customWidth="1"/>
     <col min="6" max="6" width="90" customWidth="1"/>
-    <col min="7" max="7" width="77.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="77.86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="2:6">
+    <row r="2" customHeight="1" spans="2:7">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,91 +1117,116 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" customHeight="1" spans="1:7">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="7:7">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="7:7">
+      <c r="G10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
